--- a/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
+++ b/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="94">
   <si>
     <t>土地坐落</t>
   </si>
@@ -202,6 +202,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>聯華實業股份有限公司</t>
   </si>
   <si>
@@ -269,6 +278,9 @@
   </si>
   <si>
     <t>2,316,990</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1120,13 +1132,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1145,13 +1157,22 @@
       <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1168,13 +1189,22 @@
       <c r="G2" s="2">
         <v>60410</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1191,13 +1221,22 @@
       <c r="G3" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1214,13 +1253,22 @@
       <c r="G4" s="2">
         <v>116560</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1237,13 +1285,22 @@
       <c r="G5" s="2">
         <v>21870</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1260,13 +1317,22 @@
       <c r="G6" s="2">
         <v>217360</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1281,15 +1347,24 @@
         <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1306,13 +1381,22 @@
       <c r="G8" s="2">
         <v>717150</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1329,13 +1413,22 @@
       <c r="G9" s="2">
         <v>152930</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1352,13 +1445,22 @@
       <c r="G10" s="2">
         <v>245810</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1375,13 +1477,22 @@
       <c r="G11" s="2">
         <v>155030</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1398,13 +1509,22 @@
       <c r="G12" s="2">
         <v>13440</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1421,13 +1541,22 @@
       <c r="G13" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1442,15 +1571,24 @@
         <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>85</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -1467,19 +1605,28 @@
       <c r="G15" s="2">
         <v>36910</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
@@ -1490,13 +1637,22 @@
       <c r="G16" s="2">
         <v>20500</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -1513,13 +1669,22 @@
       <c r="G17" s="2">
         <v>10100</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -1536,13 +1701,22 @@
       <c r="G18" s="2">
         <v>101460</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1559,13 +1733,22 @@
       <c r="G19" s="2">
         <v>100940</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -1582,13 +1765,22 @@
       <c r="G20" s="2">
         <v>35160</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -1604,6 +1796,15 @@
       </c>
       <c r="G21" s="2">
         <v>461910</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1727</v>
       </c>
     </row>
   </sheetData>
@@ -1621,13 +1822,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1635,10 +1836,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -1649,10 +1850,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -1663,10 +1864,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>

--- a/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
+++ b/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
   <si>
     <t>土地坐落</t>
   </si>
@@ -202,6 +202,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -220,22 +223,22 @@
     <t>佳能企業股份有限公司</t>
   </si>
   <si>
-    <t>彰化商業銀行股份有限公 司</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行股份有 限公司</t>
-  </si>
-  <si>
-    <t>中華開發金融控股股份有 限公司</t>
-  </si>
-  <si>
-    <t>玉山金融控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>台新金融控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>第一金融控股股份有限公 司</t>
+    <t>彰化商業銀行股份有限公司</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行股份有限公司</t>
+  </si>
+  <si>
+    <t>中華開發金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>玉山金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>台新金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>第一金融控股股份有限公司</t>
   </si>
   <si>
     <t>遠東百貨股份有限公司</t>
@@ -247,7 +250,7 @@
     <t>遠雄建設事業股份有限公</t>
   </si>
   <si>
-    <t>遠雄自貿港投資控股股份 有限公司</t>
+    <t>遠雄自貿港投資控股股份有限公司</t>
   </si>
   <si>
     <t>瑞儀光電股份有限公司</t>
@@ -259,25 +262,28 @@
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
-    <t>台灣積體電路製造股份有 限公司</t>
-  </si>
-  <si>
-    <t>華南金融控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>寶來曼氏期貨股份有限公 司</t>
-  </si>
-  <si>
-    <t>基亞生物科技股份有限公 司</t>
-  </si>
-  <si>
-    <t>2，050</t>
-  </si>
-  <si>
-    <t>1,999,590</t>
-  </si>
-  <si>
-    <t>2,316,990</t>
+    <t>台灣積體電路製造股份有限公司</t>
+  </si>
+  <si>
+    <t>華南金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>寶來曼氏期貨股份有限公司</t>
+  </si>
+  <si>
+    <t>基亞生物科技股份有限公司</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>1999590</t>
+  </si>
+  <si>
+    <t>2316990</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-30</t>
@@ -1132,13 +1138,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1166,13 +1172,16 @@
       <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1190,21 +1199,24 @@
         <v>60410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1222,21 +1234,24 @@
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="2">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1254,21 +1269,24 @@
         <v>116560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2">
+        <v>88</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1286,21 +1304,24 @@
         <v>21870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2">
+        <v>88</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1318,21 +1339,24 @@
         <v>217360</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="2">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1347,24 +1371,27 @@
         <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2">
+        <v>88</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1382,21 +1409,24 @@
         <v>717150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2">
+        <v>88</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1414,21 +1444,24 @@
         <v>152930</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="2">
+        <v>88</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1446,21 +1479,24 @@
         <v>245810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="2">
+        <v>88</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1478,21 +1514,24 @@
         <v>155030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="2">
+        <v>88</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1510,21 +1549,24 @@
         <v>13440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="2">
+        <v>88</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1542,21 +1584,24 @@
         <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="2">
+        <v>88</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1571,24 +1616,27 @@
         <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="2">
+        <v>88</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -1606,27 +1654,30 @@
         <v>36910</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="2">
+        <v>88</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
@@ -1638,21 +1689,24 @@
         <v>20500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="2">
+        <v>88</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -1670,21 +1724,24 @@
         <v>10100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="2">
+        <v>88</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -1702,21 +1759,24 @@
         <v>101460</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="2">
+        <v>88</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1734,21 +1794,24 @@
         <v>100940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="2">
+        <v>88</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -1766,21 +1829,24 @@
         <v>35160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="2">
+        <v>88</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="2">
         <v>1727</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -1798,12 +1864,15 @@
         <v>461910</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="2">
+        <v>88</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2">
         <v>1727</v>
       </c>
     </row>
@@ -1822,13 +1891,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1836,10 +1905,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -1850,10 +1919,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -1864,10 +1933,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>

--- a/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
+++ b/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="101">
   <si>
     <t>土地坐落</t>
   </si>
@@ -205,6 +205,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -214,6 +217,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>聯華實業股份有限公司</t>
   </si>
   <si>
@@ -286,7 +295,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmpc32d1</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1138,13 +1153,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1175,13 +1190,22 @@
       <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1199,24 +1223,33 @@
         <v>60410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2">
+        <v>92</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1234,24 +1267,33 @@
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2">
+        <v>92</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1269,24 +1311,33 @@
         <v>116560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1304,24 +1355,33 @@
         <v>21870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="2">
+        <v>92</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1339,24 +1399,33 @@
         <v>217360</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2">
+        <v>92</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1371,27 +1440,36 @@
         <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2">
+        <v>92</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1409,24 +1487,33 @@
         <v>717150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2">
+        <v>92</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1444,24 +1531,33 @@
         <v>152930</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="2">
+        <v>92</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1479,24 +1575,33 @@
         <v>245810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="2">
+        <v>92</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1514,24 +1619,33 @@
         <v>155030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="2">
+        <v>92</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1549,24 +1663,33 @@
         <v>13440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="2">
+        <v>92</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1584,24 +1707,33 @@
         <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="2">
+        <v>92</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1616,27 +1748,36 @@
         <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="2">
+        <v>92</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -1654,30 +1795,39 @@
         <v>36910</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="2">
+        <v>92</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
@@ -1689,24 +1839,33 @@
         <v>20500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="2">
+        <v>92</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -1724,24 +1883,33 @@
         <v>10100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="2">
+        <v>92</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -1759,24 +1927,33 @@
         <v>101460</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="2">
+        <v>92</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1794,24 +1971,33 @@
         <v>100940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="2">
+        <v>92</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N19" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -1829,24 +2015,33 @@
         <v>35160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="2">
+        <v>92</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="2">
         <v>1727</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -1864,16 +2059,25 @@
         <v>461910</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="2">
+        <v>92</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="2">
         <v>1727</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N21" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1891,13 +2095,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1905,10 +2109,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -1919,10 +2123,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -1933,10 +2137,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>

--- a/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
+++ b/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
@@ -20,9 +20,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="101">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="104">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市明義段00730000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣光復郷阿托莫段17110000地號</t>
+  </si>
+  <si>
+    <t>5594.94</t>
+  </si>
+  <si>
+    <t>10000分之1111</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之593</t>
+  </si>
+  <si>
+    <t>王廷升</t>
+  </si>
+  <si>
+    <t>謝逸萍</t>
+  </si>
+  <si>
+    <t>98年12月21曰</t>
+  </si>
+  <si>
+    <t>98年01月07日</t>
+  </si>
+  <si>
+    <t>84年06月30日</t>
+  </si>
+  <si>
+    <t>互易</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>1460994</t>
+  </si>
+  <si>
+    <t>758268(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmpc32d1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,70 +145,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>花蓮縣花蓮市明義段0073-0000 • 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣光復郷阿托莫段 1711-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市明義段0073-0000 地號</t>
-  </si>
-  <si>
-    <t>5,594.94</t>
-  </si>
-  <si>
-    <t>10000分之 1111</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 593</t>
-  </si>
-  <si>
-    <t>王廷升</t>
-  </si>
-  <si>
-    <t>謝逸萍</t>
-  </si>
-  <si>
-    <t>98年12月 21曰</t>
-  </si>
-  <si>
-    <t>98年01月 07日</t>
-  </si>
-  <si>
-    <t>84年06月 30日</t>
-  </si>
-  <si>
-    <t>互易</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>1,460,994</t>
-  </si>
-  <si>
-    <t>758，268(超過 五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市明義段01908-000 建號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市明義段01910-000 建號</t>
-  </si>
-  <si>
-    <t>98年12月 21日</t>
-  </si>
-  <si>
-    <t>99年09月 14日</t>
+    <t>花蓮縣花蓮市明義段01908000建號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市明義段01910000建號</t>
+  </si>
+  <si>
+    <t>98年12月21日</t>
+  </si>
+  <si>
+    <t>99年09月14日</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -121,7 +169,7 @@
     <t>豐田國瑞</t>
   </si>
   <si>
-    <t>95年07月 21日</t>
+    <t>95年07月21日</t>
   </si>
   <si>
     <t>型式</t>
@@ -133,10 +181,10 @@
     <t>國籍標示及編號</t>
   </si>
   <si>
-    <t>幣 別</t>
-  </si>
-  <si>
-    <t>外 幣 總 額</t>
+    <t>幣別</t>
+  </si>
+  <si>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -148,25 +196,22 @@
     <t>種轉</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
     <t>花蓮縣花蓮市農會信用部</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行花蓮分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行花蓮分 行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行花蓮分 行</t>
+    <t>兆豐國際商業銀行花蓮分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行花蓮分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行花蓮分行</t>
   </si>
   <si>
     <t>中和郵局（板橋71支局）</t>
   </si>
   <si>
-    <t>花蓮中華路郵局(第1 3支 局）</t>
+    <t>花蓮中華路郵局(第13支局）</t>
   </si>
   <si>
     <t>第一商業銀行花蓮分行</t>
@@ -178,16 +223,10 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1,393,783</t>
-  </si>
-  <si>
-    <t>1,174,678</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>1393783</t>
+  </si>
+  <si>
+    <t>1174678</t>
   </si>
   <si>
     <t>quantity</t>
@@ -202,27 +241,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>聯華實業股份有限公司</t>
   </si>
   <si>
@@ -293,15 +311,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmpc32d1</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -681,13 +690,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,83 +718,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>387</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1727</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2">
         <v>12000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1727</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>387</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1727</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -803,25 +896,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -829,22 +922,22 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>156.87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2">
         <v>588400</v>
@@ -855,22 +948,22 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>84.08</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2">
         <v>298700</v>
@@ -891,22 +984,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -914,19 +1007,19 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2">
         <v>700000</v>
@@ -947,16 +1040,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -964,16 +1057,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -991,19 +1084,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1011,16 +1104,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>20734</v>
@@ -1031,19 +1124,19 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1051,16 +1144,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>547246</v>
@@ -1071,16 +1164,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>11951</v>
@@ -1091,16 +1184,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2">
         <v>65</v>
@@ -1111,19 +1204,19 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1131,16 +1224,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
         <v>68708</v>
@@ -1161,43 +1254,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1205,10 +1298,10 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>6041</v>
@@ -1217,28 +1310,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
         <v>60410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>1727</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
         <v>59</v>
@@ -1249,10 +1342,10 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>10000</v>
@@ -1261,28 +1354,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2">
         <v>1727</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N3" s="2">
         <v>60</v>
@@ -1293,10 +1386,10 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>11656</v>
@@ -1305,28 +1398,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2">
         <v>116560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2">
         <v>1727</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N4" s="2">
         <v>61</v>
@@ -1337,10 +1430,10 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>2187</v>
@@ -1349,28 +1442,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2">
         <v>21870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2">
         <v>1727</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N5" s="2">
         <v>62</v>
@@ -1381,10 +1474,10 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>21736</v>
@@ -1393,28 +1486,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2">
         <v>217360</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2">
         <v>1727</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N6" s="2">
         <v>63</v>
@@ -1425,10 +1518,10 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>199959</v>
@@ -1437,28 +1530,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2">
         <v>1727</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N7" s="2">
         <v>64</v>
@@ -1469,10 +1562,10 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>71715</v>
@@ -1481,28 +1574,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2">
         <v>717150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L8" s="2">
         <v>1727</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N8" s="2">
         <v>65</v>
@@ -1513,10 +1606,10 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>15293</v>
@@ -1525,28 +1618,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2">
         <v>152930</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L9" s="2">
         <v>1727</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N9" s="2">
         <v>66</v>
@@ -1557,10 +1650,10 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>24581</v>
@@ -1569,28 +1662,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G10" s="2">
         <v>245810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2">
         <v>1727</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N10" s="2">
         <v>67</v>
@@ -1601,10 +1694,10 @@
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>15503</v>
@@ -1613,28 +1706,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2">
         <v>155030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L11" s="2">
         <v>1727</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N11" s="2">
         <v>68</v>
@@ -1645,10 +1738,10 @@
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
         <v>1344</v>
@@ -1657,28 +1750,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2">
         <v>13440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L12" s="2">
         <v>1727</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N12" s="2">
         <v>69</v>
@@ -1689,10 +1782,10 @@
         <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>10000</v>
@@ -1701,28 +1794,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2">
         <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L13" s="2">
         <v>1727</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N13" s="2">
         <v>70</v>
@@ -1733,10 +1826,10 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>231699</v>
@@ -1745,28 +1838,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L14" s="2">
         <v>1727</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N14" s="2">
         <v>73</v>
@@ -1777,10 +1870,10 @@
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
         <v>3691</v>
@@ -1789,28 +1882,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G15" s="2">
         <v>36910</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L15" s="2">
         <v>1727</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N15" s="2">
         <v>74</v>
@@ -1821,40 +1914,40 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G16" s="2">
         <v>20500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L16" s="2">
         <v>1727</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N16" s="2">
         <v>75</v>
@@ -1865,10 +1958,10 @@
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2">
         <v>1010</v>
@@ -1877,28 +1970,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2">
         <v>10100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L17" s="2">
         <v>1727</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N17" s="2">
         <v>76</v>
@@ -1909,10 +2002,10 @@
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>10146</v>
@@ -1921,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2">
         <v>101460</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L18" s="2">
         <v>1727</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N18" s="2">
         <v>77</v>
@@ -1953,10 +2046,10 @@
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
         <v>10094</v>
@@ -1965,28 +2058,28 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G19" s="2">
         <v>100940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L19" s="2">
         <v>1727</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N19" s="2">
         <v>78</v>
@@ -1997,10 +2090,10 @@
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
         <v>3516</v>
@@ -2009,28 +2102,28 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2">
         <v>35160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L20" s="2">
         <v>1727</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N20" s="2">
         <v>79</v>
@@ -2041,10 +2134,10 @@
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
         <v>46191</v>
@@ -2053,28 +2146,28 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G21" s="2">
         <v>461910</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L21" s="2">
         <v>1727</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N21" s="2">
         <v>80</v>
@@ -2095,13 +2188,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2109,13 +2202,13 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2123,13 +2216,13 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2137,13 +2230,13 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
+++ b/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -64,141 +64,99 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>花蓮縣光復郷阿托莫段17110000地號</t>
+  </si>
+  <si>
     <t>花蓮縣花蓮市明義段00730000地號</t>
   </si>
   <si>
-    <t>花蓮縣光復郷阿托莫段17110000地號</t>
-  </si>
-  <si>
-    <t>5594.94</t>
-  </si>
-  <si>
-    <t>10000分之1111</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
     <t>10000分之593</t>
   </si>
   <si>
+    <t>謝逸萍</t>
+  </si>
+  <si>
+    <t>98年01月07日</t>
+  </si>
+  <si>
+    <t>84年06月30日</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>758268(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
     <t>王廷升</t>
   </si>
   <si>
-    <t>謝逸萍</t>
-  </si>
-  <si>
-    <t>98年12月21曰</t>
-  </si>
-  <si>
-    <t>98年01月07日</t>
-  </si>
-  <si>
-    <t>84年06月30日</t>
+    <t>tmpc32d1</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市明義段01908000建號</t>
+  </si>
+  <si>
+    <t>98年12月21日</t>
   </si>
   <si>
     <t>互易</t>
   </si>
   <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>1460994</t>
-  </si>
-  <si>
-    <t>758268(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmpc32d1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市明義段01908000建號</t>
-  </si>
-  <si>
     <t>花蓮縣花蓮市明義段01910000建號</t>
   </si>
   <si>
-    <t>98年12月21日</t>
-  </si>
-  <si>
     <t>99年09月14日</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>豐田國瑞</t>
+  </si>
+  <si>
+    <t>95年07月21日</t>
+  </si>
+  <si>
+    <t>幣別</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>豐田國瑞</t>
-  </si>
-  <si>
-    <t>95年07月21日</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
     <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種轉</t>
-  </si>
-  <si>
     <t>花蓮縣花蓮市農會信用部</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>兆豐國際商業銀行花蓮分行</t>
   </si>
   <si>
@@ -217,12 +175,6 @@
     <t>第一商業銀行花蓮分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>1393783</t>
   </si>
   <si>
@@ -238,12 +190,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>聯華實業股份有限公司</t>
-  </si>
-  <si>
     <t>華新科技股份有限公司</t>
   </si>
   <si>
@@ -313,22 +259,13 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>國華人壽</t>
   </si>
   <si>
+    <t>保障型醫療險</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>保障型醫療險</t>
   </si>
   <si>
     <t>新終身壽險</t>
@@ -690,13 +627,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,146 +676,117 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>387</v>
+        <v>5594.94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2">
+        <v>12000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2">
         <v>1727</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5594.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>387</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2">
-        <v>12000</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>1727</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
-        <v>387</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1727</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="2">
-        <v>17</v>
+      <c r="P3" s="2">
+        <v>0.0593</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>22.9491</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +796,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -896,36 +804,36 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>156.87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H1" s="1">
+        <v>588400</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
-        <v>156.87</v>
+        <v>84.08</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -934,38 +842,12 @@
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2">
-        <v>588400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2">
-        <v>84.08</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2">
         <v>298700</v>
       </c>
     </row>
@@ -976,52 +858,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1998</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1">
         <v>700000</v>
       </c>
     </row>
@@ -1032,41 +891,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1076,7 +918,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1084,158 +926,138 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>20734</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2">
-        <v>20734</v>
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
+      </c>
+      <c r="F3" s="2">
+        <v>547246</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
-        <v>547246</v>
+        <v>11951</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <v>11951</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2">
-        <v>65</v>
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2">
         <v>68708</v>
       </c>
     </row>
@@ -1246,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1260,16 +1082,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1295,881 +1117,837 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
-        <v>6041</v>
+        <v>10000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2">
-        <v>60410</v>
+        <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2">
         <v>1727</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
-        <v>10000</v>
+        <v>11656</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2">
-        <v>100000</v>
+        <v>116560</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2">
         <v>1727</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
-        <v>11656</v>
+        <v>2187</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2">
-        <v>116560</v>
+        <v>21870</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2">
         <v>1727</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
-        <v>2187</v>
+        <v>21736</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2">
-        <v>21870</v>
+        <v>217360</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2">
         <v>1727</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
-        <v>21736</v>
+        <v>199959</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="2">
-        <v>217360</v>
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L6" s="2">
         <v>1727</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
-        <v>199959</v>
+        <v>71715</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
+      </c>
+      <c r="G7" s="2">
+        <v>717150</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2">
         <v>1727</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
-        <v>71715</v>
+        <v>15293</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2">
-        <v>717150</v>
+        <v>152930</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L8" s="2">
         <v>1727</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
-        <v>15293</v>
+        <v>24581</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2">
-        <v>152930</v>
+        <v>245810</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L9" s="2">
         <v>1727</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
-        <v>24581</v>
+        <v>15503</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2">
-        <v>245810</v>
+        <v>155030</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L10" s="2">
         <v>1727</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
-        <v>15503</v>
+        <v>1344</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2">
-        <v>155030</v>
+        <v>13440</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L11" s="2">
         <v>1727</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N11" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
-        <v>1344</v>
+        <v>10000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2">
-        <v>13440</v>
+        <v>100000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L12" s="2">
         <v>1727</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N12" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
-        <v>10000</v>
+        <v>231699</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="2">
-        <v>100000</v>
+        <v>44</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L13" s="2">
         <v>1727</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N13" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
-        <v>231699</v>
+        <v>3691</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
+      </c>
+      <c r="G14" s="2">
+        <v>36910</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L14" s="2">
         <v>1727</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N14" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3691</v>
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G15" s="2">
-        <v>36910</v>
+        <v>20500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L15" s="2">
         <v>1727</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N15" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1010</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G16" s="2">
-        <v>20500</v>
+        <v>10100</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L16" s="2">
         <v>1727</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N16" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
-        <v>1010</v>
+        <v>10146</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G17" s="2">
-        <v>10100</v>
+        <v>101460</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L17" s="2">
         <v>1727</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N17" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
-        <v>10146</v>
+        <v>10094</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G18" s="2">
-        <v>101460</v>
+        <v>100940</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L18" s="2">
         <v>1727</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N18" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
-        <v>10094</v>
+        <v>3516</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G19" s="2">
-        <v>100940</v>
+        <v>35160</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L19" s="2">
         <v>1727</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N19" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
-        <v>3516</v>
+        <v>46191</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G20" s="2">
-        <v>35160</v>
+        <v>461910</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L20" s="2">
         <v>1727</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N20" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1">
-        <v>80</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2">
-        <v>46191</v>
-      </c>
-      <c r="E21" s="2">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="2">
-        <v>461910</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1727</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="2">
         <v>80</v>
       </c>
     </row>
@@ -2180,7 +1958,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2188,55 +1966,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>105</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
+++ b/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -70,10 +70,13 @@
     <t>total</t>
   </si>
   <si>
+    <t>花蓮縣花蓮市明義段00730000地號</t>
+  </si>
+  <si>
     <t>花蓮縣光復郷阿托莫段17110000地號</t>
   </si>
   <si>
-    <t>花蓮縣花蓮市明義段00730000地號</t>
+    <t>10000分之1111</t>
   </si>
   <si>
     <t>全部</t>
@@ -82,21 +85,33 @@
     <t>10000分之593</t>
   </si>
   <si>
+    <t>王廷升</t>
+  </si>
+  <si>
     <t>謝逸萍</t>
   </si>
   <si>
+    <t>98年12月21曰</t>
+  </si>
+  <si>
     <t>98年01月07日</t>
   </si>
   <si>
     <t>84年06月30日</t>
   </si>
   <si>
+    <t>互易</t>
+  </si>
+  <si>
     <t>贈與</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
+    <t>1460994</t>
+  </si>
+  <si>
     <t>758268(超過五年）</t>
   </si>
   <si>
@@ -109,24 +124,18 @@
     <t>2012-04-30</t>
   </si>
   <si>
-    <t>王廷升</t>
-  </si>
-  <si>
     <t>tmpc32d1</t>
   </si>
   <si>
     <t>花蓮縣花蓮市明義段01908000建號</t>
   </si>
   <si>
+    <t>花蓮縣花蓮市明義段01910000建號</t>
+  </si>
+  <si>
     <t>98年12月21日</t>
   </si>
   <si>
-    <t>互易</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市明義段01910000建號</t>
-  </si>
-  <si>
     <t>99年09月14日</t>
   </si>
   <si>
@@ -188,6 +197,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>聯華實業股份有限公司</t>
   </si>
   <si>
     <t>華新科技股份有限公司</t>
@@ -627,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,107 +697,160 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>5594.94</v>
+        <v>387</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2">
-        <v>12000</v>
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2">
         <v>1727</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0.1111</v>
       </c>
       <c r="Q2" s="2">
-        <v>5594.94</v>
+        <v>42.9957</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>387</v>
+        <v>5594.94</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2">
+        <v>12000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1727</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>5594.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>387</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1727</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2">
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1727</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
         <v>17</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P4" s="2">
         <v>0.0593</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q4" s="2">
         <v>22.9491</v>
       </c>
     </row>
@@ -796,59 +861,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>156.87</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2">
+        <v>588400</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1">
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1727</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>156.87</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1">
-        <v>588400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
         <v>84.08</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2">
         <v>298700</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1727</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>84.08</v>
       </c>
     </row>
   </sheetData>
@@ -858,29 +1030,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1">
         <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2">
         <v>700000</v>
       </c>
     </row>
@@ -891,24 +1086,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -918,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -926,16 +1138,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1">
         <v>20734</v>
@@ -943,121 +1155,141 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20734</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2">
-        <v>547246</v>
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>11951</v>
+        <v>547246</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
-        <v>65</v>
+        <v>11951</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
         <v>68708</v>
       </c>
     </row>
@@ -1068,7 +1300,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1082,13 +1314,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1117,837 +1349,881 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
-        <v>10000</v>
+        <v>6041</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
-        <v>100000</v>
+        <v>60410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2">
         <v>1727</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
-        <v>11656</v>
+        <v>10000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2">
-        <v>116560</v>
+        <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2">
         <v>1727</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
-        <v>2187</v>
+        <v>11656</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2">
-        <v>21870</v>
+        <v>116560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2">
         <v>1727</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
-        <v>21736</v>
+        <v>2187</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2">
-        <v>217360</v>
+        <v>21870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2">
         <v>1727</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>199959</v>
+        <v>21736</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
+      </c>
+      <c r="G6" s="2">
+        <v>217360</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2">
         <v>1727</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
-        <v>71715</v>
+        <v>199959</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="2">
-        <v>717150</v>
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2">
         <v>1727</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
-        <v>15293</v>
+        <v>71715</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2">
-        <v>152930</v>
+        <v>717150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2">
         <v>1727</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N8" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
-        <v>24581</v>
+        <v>15293</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2">
-        <v>245810</v>
+        <v>152930</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L9" s="2">
         <v>1727</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>15503</v>
+        <v>24581</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2">
-        <v>155030</v>
+        <v>245810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2">
         <v>1727</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N10" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
-        <v>1344</v>
+        <v>15503</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2">
-        <v>13440</v>
+        <v>155030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2">
         <v>1727</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N11" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>10000</v>
+        <v>1344</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2">
-        <v>100000</v>
+        <v>13440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L12" s="2">
         <v>1727</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N12" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2">
-        <v>231699</v>
+        <v>10000</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L13" s="2">
         <v>1727</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N13" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
-        <v>3691</v>
+        <v>231699</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="2">
-        <v>36910</v>
+        <v>47</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L14" s="2">
         <v>1727</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N14" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3691</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2">
-        <v>20500</v>
+        <v>36910</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L15" s="2">
         <v>1727</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N15" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1010</v>
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G16" s="2">
-        <v>10100</v>
+        <v>20500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L16" s="2">
         <v>1727</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N16" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
-        <v>10146</v>
+        <v>1010</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G17" s="2">
-        <v>101460</v>
+        <v>10100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L17" s="2">
         <v>1727</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N17" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2">
-        <v>10094</v>
+        <v>10146</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G18" s="2">
-        <v>100940</v>
+        <v>101460</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L18" s="2">
         <v>1727</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N18" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2">
-        <v>3516</v>
+        <v>10094</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G19" s="2">
-        <v>35160</v>
+        <v>100940</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1727</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="2">
         <v>78</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1727</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2">
-        <v>46191</v>
+        <v>3516</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G20" s="2">
+        <v>35160</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1727</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2">
+        <v>46191</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="2">
         <v>461910</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1727</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="H21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1727</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="2">
         <v>80</v>
       </c>
     </row>
@@ -1958,7 +2234,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1966,41 +2242,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>105</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
+++ b/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>99年09月14日</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>豐田國瑞</t>
@@ -1030,38 +1033,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1070,13 +1094,34 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="2">
         <v>700000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1727</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1094,16 +1139,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1111,16 +1156,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1138,13 +1183,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1158,13 +1203,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1178,19 +1223,19 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1198,13 +1243,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1218,13 +1263,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1238,13 +1283,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1258,19 +1303,19 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1278,13 +1323,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1314,13 +1359,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1352,7 +1397,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1364,13 +1409,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>60410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1396,7 +1441,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1408,13 +1453,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>32</v>
@@ -1440,7 +1485,7 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1452,13 +1497,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
         <v>116560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>32</v>
@@ -1484,7 +1529,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1496,13 +1541,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2">
         <v>21870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>32</v>
@@ -1528,7 +1573,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1540,13 +1585,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2">
         <v>217360</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>32</v>
@@ -1572,7 +1617,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1584,13 +1629,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>32</v>
@@ -1616,7 +1661,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1628,13 +1673,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2">
         <v>717150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>32</v>
@@ -1660,7 +1705,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1672,13 +1717,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2">
         <v>152930</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>32</v>
@@ -1704,7 +1749,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1716,13 +1761,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2">
         <v>245810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>32</v>
@@ -1748,7 +1793,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1760,13 +1805,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2">
         <v>155030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>32</v>
@@ -1792,7 +1837,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -1804,13 +1849,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2">
         <v>13440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>32</v>
@@ -1836,7 +1881,7 @@
         <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -1848,13 +1893,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2">
         <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>32</v>
@@ -1880,7 +1925,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
@@ -1892,13 +1937,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>32</v>
@@ -1924,7 +1969,7 @@
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
@@ -1936,13 +1981,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2">
         <v>36910</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>32</v>
@@ -1968,25 +2013,25 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2">
         <v>20500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>32</v>
@@ -2012,7 +2057,7 @@
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
@@ -2024,13 +2069,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2">
         <v>10100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>32</v>
@@ -2056,7 +2101,7 @@
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
@@ -2068,13 +2113,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" s="2">
         <v>101460</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>32</v>
@@ -2100,7 +2145,7 @@
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -2112,13 +2157,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2">
         <v>100940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>32</v>
@@ -2144,7 +2189,7 @@
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
@@ -2156,13 +2201,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" s="2">
         <v>35160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>32</v>
@@ -2188,7 +2233,7 @@
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
@@ -2200,13 +2245,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" s="2">
         <v>461910</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>32</v>
@@ -2242,10 +2287,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -2256,10 +2301,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -2270,10 +2315,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -2284,10 +2329,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
+++ b/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
@@ -10,17 +10,16 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
-    <sheet name="航空器" sheetId="4" r:id="rId4"/>
-    <sheet name="存款" sheetId="5" r:id="rId5"/>
-    <sheet name="股票" sheetId="6" r:id="rId6"/>
-    <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -139,6 +138,9 @@
     <t>99年09月14日</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -148,16 +150,7 @@
     <t>95年07月21日</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
+    <t>car</t>
   </si>
   <si>
     <t>花蓮縣花蓮市農會信用部</t>
@@ -946,7 +939,7 @@
         <v>588400</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -999,7 +992,7 @@
         <v>298700</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>32</v>
@@ -1044,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1085,7 +1078,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1094,7 +1087,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
@@ -1103,7 +1096,7 @@
         <v>700000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1130,50 +1123,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1183,13 +1132,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1203,13 +1152,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1223,19 +1172,19 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,13 +1192,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1263,13 +1212,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1283,13 +1232,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1303,19 +1252,19 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,13 +1272,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1343,7 +1292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -1359,13 +1308,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1397,7 +1346,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1409,13 +1358,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
         <v>60410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1441,7 +1390,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1453,13 +1402,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>32</v>
@@ -1485,7 +1434,7 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1497,13 +1446,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2">
         <v>116560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>32</v>
@@ -1529,7 +1478,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1541,13 +1490,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2">
         <v>21870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>32</v>
@@ -1573,7 +1522,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1585,13 +1534,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2">
         <v>217360</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>32</v>
@@ -1617,7 +1566,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1629,13 +1578,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>32</v>
@@ -1661,7 +1610,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1673,13 +1622,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2">
         <v>717150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>32</v>
@@ -1705,7 +1654,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1717,13 +1666,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2">
         <v>152930</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>32</v>
@@ -1749,7 +1698,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1761,13 +1710,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2">
         <v>245810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>32</v>
@@ -1793,7 +1742,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1805,13 +1754,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2">
         <v>155030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>32</v>
@@ -1837,7 +1786,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -1849,13 +1798,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="2">
         <v>13440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>32</v>
@@ -1881,7 +1830,7 @@
         <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -1893,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2">
         <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>32</v>
@@ -1925,7 +1874,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
@@ -1937,13 +1886,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>32</v>
@@ -1969,7 +1918,7 @@
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
@@ -1981,13 +1930,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G15" s="2">
         <v>36910</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>32</v>
@@ -2013,25 +1962,25 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G16" s="2">
         <v>20500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>32</v>
@@ -2057,7 +2006,7 @@
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
@@ -2069,13 +2018,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="2">
         <v>10100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>32</v>
@@ -2101,7 +2050,7 @@
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
@@ -2113,13 +2062,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="2">
         <v>101460</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>32</v>
@@ -2145,7 +2094,7 @@
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -2157,13 +2106,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="2">
         <v>100940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>32</v>
@@ -2189,7 +2138,7 @@
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
@@ -2201,13 +2150,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20" s="2">
         <v>35160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>32</v>
@@ -2233,7 +2182,7 @@
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
@@ -2245,13 +2194,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G21" s="2">
         <v>461910</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>32</v>
@@ -2277,7 +2226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2287,10 +2236,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -2301,10 +2250,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -2315,10 +2264,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -2329,10 +2278,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
+++ b/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -153,46 +153,49 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>花蓮縣花蓮市農會信用部</t>
   </si>
   <si>
+    <t>兆豐國際商業銀行花蓮分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行花蓮分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行花蓮分行</t>
+  </si>
+  <si>
+    <t>中和郵局（板橋71支局）</t>
+  </si>
+  <si>
+    <t>花蓮中華路郵局(第13支局）</t>
+  </si>
+  <si>
+    <t>第一商業銀行花蓮分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行花蓮分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行花蓮分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行花蓮分行</t>
-  </si>
-  <si>
-    <t>中和郵局（板橋71支局）</t>
-  </si>
-  <si>
-    <t>花蓮中華路郵局(第13支局）</t>
-  </si>
-  <si>
-    <t>第一商業銀行花蓮分行</t>
-  </si>
-  <si>
-    <t>1393783</t>
-  </si>
-  <si>
-    <t>1174678</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>聯華實業股份有限公司</t>
@@ -1124,13 +1127,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1141,24 +1144,45 @@
         <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>20734</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1166,39 +1190,81 @@
       <c r="F2" s="2">
         <v>20734</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1727</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1393783</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1727</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1206,19 +1272,40 @@
       <c r="F4" s="2">
         <v>547246</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1727</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1226,19 +1313,40 @@
       <c r="F5" s="2">
         <v>11951</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1727</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1246,45 +1354,108 @@
       <c r="F6" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1727</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1174678</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1727</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="2">
         <v>68708</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1727</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1308,13 +1479,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1346,7 +1517,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1358,13 +1529,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2">
         <v>60410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1390,7 +1561,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1402,13 +1573,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>32</v>
@@ -1434,7 +1605,7 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1446,13 +1617,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2">
         <v>116560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>32</v>
@@ -1478,7 +1649,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1490,13 +1661,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2">
         <v>21870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>32</v>
@@ -1522,7 +1693,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1534,13 +1705,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2">
         <v>217360</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>32</v>
@@ -1566,7 +1737,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1578,13 +1749,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>32</v>
@@ -1610,7 +1781,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1622,13 +1793,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2">
         <v>717150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>32</v>
@@ -1654,7 +1825,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1666,13 +1837,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2">
         <v>152930</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>32</v>
@@ -1698,7 +1869,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1710,13 +1881,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2">
         <v>245810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>32</v>
@@ -1742,7 +1913,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1754,13 +1925,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2">
         <v>155030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>32</v>
@@ -1786,7 +1957,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -1798,13 +1969,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2">
         <v>13440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>32</v>
@@ -1830,7 +2001,7 @@
         <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -1842,13 +2013,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2">
         <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>32</v>
@@ -1874,7 +2045,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
@@ -1886,13 +2057,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>32</v>
@@ -1918,7 +2089,7 @@
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
@@ -1930,13 +2101,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2">
         <v>36910</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>32</v>
@@ -1962,25 +2133,25 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2">
         <v>20500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>32</v>
@@ -2006,7 +2177,7 @@
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
@@ -2018,13 +2189,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2">
         <v>10100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>32</v>
@@ -2050,7 +2221,7 @@
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
@@ -2062,13 +2233,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G18" s="2">
         <v>101460</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>32</v>
@@ -2094,7 +2265,7 @@
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -2106,13 +2277,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G19" s="2">
         <v>100940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>32</v>
@@ -2138,7 +2309,7 @@
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
@@ -2150,13 +2321,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G20" s="2">
         <v>35160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>32</v>
@@ -2182,7 +2353,7 @@
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
@@ -2194,13 +2365,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G21" s="2">
         <v>461910</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>32</v>
@@ -2236,10 +2407,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -2250,10 +2421,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -2264,10 +2435,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -2278,10 +2449,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
+++ b/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -270,16 +270,22 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國華人壽</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>保障型醫療險</t>
   </si>
   <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>新終身壽險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2399,38 +2405,80 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1727</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>104</v>
       </c>
@@ -2438,13 +2486,34 @@
         <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1727</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>105</v>
       </c>
@@ -2452,10 +2521,31 @@
         <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1727</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
+++ b/legislator/property/output/normal/王廷升_2012-04-30_財產申報表_tmpc32d1.xlsx
@@ -13,13 +13,14 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -231,7 +232,7 @@
     <t>緯創資通股份有限公司</t>
   </si>
   <si>
-    <t>遠雄建設事業股份有限公</t>
+    <t>遠雄建設事業股份有限公司</t>
   </si>
   <si>
     <t>遠雄自貿港投資控股股份有限公司</t>
@@ -286,6 +287,36 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>抵押貸款</t>
+  </si>
+  <si>
+    <t>公務員貸款</t>
+  </si>
+  <si>
+    <t>兆豐國際商銀花蓮縣花蓮市公圜路</t>
+  </si>
+  <si>
+    <t>第一銀行臺北市大安區重慶南路</t>
+  </si>
+  <si>
+    <t>99年01月31日</t>
+  </si>
+  <si>
+    <t>99年04月30日</t>
+  </si>
+  <si>
+    <t>個人用</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2551,4 +2582,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11877390</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1727</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2216229</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1727</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>